--- a/data/134/DEUSTATIS/old/Harmonised index of consumer prices.xlsx
+++ b/data/134/DEUSTATIS/old/Harmonised index of consumer prices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="65">
   <si>
     <t>Harmonised index of consumer prices: Germany, months,
 individual consumption by purpose (COICOP)</t>
@@ -207,7 +207,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:20:07</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:16:28</t>
   </si>
 </sst>
 </file>
@@ -20524,186 +20524,186 @@
       <c r="A341" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="C341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="E341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="F341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="G341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="H341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="I341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="J341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="K341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="L341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="M341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="N341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="O341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="P341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="Q341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="R341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="S341" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="T341" t="s" s="10">
-        <v>62</v>
+      <c r="B341" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="C341" t="n" s="10">
+        <v>117.1</v>
+      </c>
+      <c r="D341" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="E341" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="F341" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="G341" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="H341" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="I341" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="J341" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="K341" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="L341" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="M341" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="N341" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="O341" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P341" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="Q341" t="n" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="R341" t="n" s="10">
+        <v>115.9</v>
+      </c>
+      <c r="S341" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="T341" t="n" s="10">
+        <v>110.1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="C342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="E342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="F342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="G342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="H342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="I342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="J342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="K342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="L342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="M342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="N342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="O342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="P342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="Q342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="R342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="S342" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="T342" t="s" s="10">
-        <v>62</v>
+      <c r="B342" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="C342" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="D342" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="E342" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="F342" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="G342" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="H342" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="I342" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="J342" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="K342" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="L342" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="M342" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="N342" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="O342" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P342" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="Q342" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="R342" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="S342" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="T342" t="n" s="10">
+        <v>110.7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="C343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="E343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="F343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="G343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="H343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="I343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="J343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="K343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="L343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="M343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="N343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="O343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="P343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="Q343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="R343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="S343" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="T343" t="s" s="10">
-        <v>62</v>
+      <c r="B343" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="C343" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="D343" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="E343" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="F343" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="G343" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="H343" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="I343" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="J343" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="K343" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="L343" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="M343" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="N343" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="O343" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P343" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="Q343" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="R343" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="S343" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="T343" t="n" s="10">
+        <v>111.0</v>
       </c>
     </row>
     <row r="344">
@@ -20815,7 +20815,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:20:11&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:16:34&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>